--- a/ProjektFiler/xlsx-docs/hepatitis.xlsx
+++ b/ProjektFiler/xlsx-docs/hepatitis.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\IdeaProjects\Machine_Learning_DT\ProjektFiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\IdeaProjects\Machine_Learning_DT\ProjektFiler\xlsx-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="our dtc" sheetId="1" r:id="rId1"/>
-    <sheet name="their dtc" sheetId="2" r:id="rId2"/>
-    <sheet name="our rf" sheetId="3" r:id="rId3"/>
-    <sheet name="their rf" sheetId="4" r:id="rId4"/>
+    <sheet name="for_report" sheetId="5" r:id="rId1"/>
+    <sheet name="our dtc" sheetId="1" r:id="rId2"/>
+    <sheet name="their dtc" sheetId="2" r:id="rId3"/>
+    <sheet name="our rf" sheetId="3" r:id="rId4"/>
+    <sheet name="their rf" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Our average AUC</t>
   </si>
@@ -58,6 +59,36 @@
   </si>
   <si>
     <t>Their average training time</t>
+  </si>
+  <si>
+    <t>Our DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>Their DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <t>Our RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>Their RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>average AUC</t>
+  </si>
+  <si>
+    <t>average accuracy</t>
+  </si>
+  <si>
+    <t>average precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> average recall</t>
+  </si>
+  <si>
+    <t>average testing time</t>
+  </si>
+  <si>
+    <t>average training time</t>
   </si>
 </sst>
 </file>
@@ -116,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +168,1979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Hepatitis.csv</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>for_report!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>for_report!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>average AUC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>average accuracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>average precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> average recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>for_report!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>66.05215219008322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.479166666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.417582417582423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>for_report!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Their DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>for_report!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>average AUC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>average accuracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>average precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> average recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>for_report!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>62.641413980544414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.622835497835482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.640109890109883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>for_report!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our RandomForestClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>for_report!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>average AUC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>average accuracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>average precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> average recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>for_report!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.652669391799819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.881868131868146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.916666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>for_report!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Their RandomForestClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>for_report!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>average AUC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>average accuracy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>average precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> average recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>for_report!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68.778510378510376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.913128538128547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.509157509157504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1336948384"/>
+        <c:axId val="-1336945664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1336948384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1336945664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1336945664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1336948384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>for_report!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average training time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>for_report!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Our DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Their DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Our RandomForestClassifier</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Their RandomForestClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>for_report!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.6813412189483643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0099830627441402E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59017527103424072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.200640201568604E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-1282760928"/>
+        <c:axId val="-1282759840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1282760928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1282759840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1282759840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1282760928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1356360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1531620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,57 +2430,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.66052152190083224</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>66.05215219008322</v>
       </c>
       <c r="C2">
         <v>80.625</v>
       </c>
-      <c r="D2">
-        <v>0.69479166666666659</v>
-      </c>
-      <c r="E2">
-        <v>0.67417582417582422</v>
+      <c r="D2" s="2">
+        <v>69.479166666666657</v>
+      </c>
+      <c r="E2" s="2">
+        <v>67.417582417582423</v>
       </c>
       <c r="F2">
         <v>9.8800659179687495E-5</v>
       </c>
       <c r="G2">
         <v>0.6813412189483643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>62.641413980544414</v>
+      </c>
+      <c r="C3">
+        <v>78.125</v>
+      </c>
+      <c r="D3" s="2">
+        <v>62.622835497835482</v>
+      </c>
+      <c r="E3" s="2">
+        <v>63.640109890109883</v>
+      </c>
+      <c r="F3">
+        <v>1.9981861114501951E-4</v>
+      </c>
+      <c r="G3">
+        <v>7.0099830627441402E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>73.652669391799819</v>
+      </c>
+      <c r="C4">
+        <v>87.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>80.881868131868146</v>
+      </c>
+      <c r="E4" s="2">
+        <v>72.916666666666657</v>
+      </c>
+      <c r="F4">
+        <v>3.302359580993652E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.59017527103424072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>68.778510378510376</v>
+      </c>
+      <c r="C5">
+        <v>81.25</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70.913128538128547</v>
+      </c>
+      <c r="E5" s="2">
+        <v>71.509157509157504</v>
+      </c>
+      <c r="F5">
+        <v>1.0026454925537111E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.200640201568604E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -483,28 +2566,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -512,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.62641413980544414</v>
+        <v>0.66052152190083224</v>
       </c>
       <c r="C2">
-        <v>78.125</v>
+        <v>80.625</v>
       </c>
       <c r="D2">
-        <v>0.62622835497835483</v>
+        <v>0.69479166666666659</v>
       </c>
       <c r="E2">
-        <v>0.63640109890109886</v>
+        <v>0.67417582417582422</v>
       </c>
       <c r="F2">
-        <v>1.9981861114501951E-4</v>
+        <v>9.8800659179687495E-5</v>
       </c>
       <c r="G2">
-        <v>7.0099830627441402E-4</v>
+        <v>0.6813412189483643</v>
       </c>
     </row>
   </sheetData>
@@ -539,28 +2624,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -568,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.73652669391799819</v>
+        <v>0.62641413980544414</v>
       </c>
       <c r="C2">
-        <v>87.5</v>
+        <v>78.125</v>
       </c>
       <c r="D2">
-        <v>0.8088186813186814</v>
+        <v>0.62622835497835483</v>
       </c>
       <c r="E2">
-        <v>0.72916666666666663</v>
+        <v>0.63640109890109886</v>
       </c>
       <c r="F2">
-        <v>3.302359580993652E-3</v>
+        <v>1.9981861114501951E-4</v>
       </c>
       <c r="G2">
-        <v>0.59017527103424072</v>
+        <v>7.0099830627441402E-4</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +2682,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.73652669391799819</v>
+      </c>
+      <c r="C2">
+        <v>87.5</v>
+      </c>
+      <c r="D2">
+        <v>0.8088186813186814</v>
+      </c>
+      <c r="E2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F2">
+        <v>3.302359580993652E-3</v>
+      </c>
+      <c r="G2">
+        <v>0.59017527103424072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
